--- a/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarob\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cffuentes\repos\ssp_mongolia\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0D38A7-C30A-498A-AAF8-300246D498F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A66A4-1E85-40BC-88D7-DD6C3E4395A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1636,7 +1636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,11 +1722,11 @@
       </c>
       <c r="L2" s="28">
         <f>+COUNT(J2:J62)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="30">
         <f>+(L2/61)</f>
-        <v>0.75409836065573765</v>
+        <v>0.73770491803278693</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,9 @@
       <c r="I5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1849,9 +1851,7 @@
       <c r="I6" s="23">
         <v>0.2</v>
       </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1879,9 +1879,7 @@
       <c r="I7" s="23">
         <v>50</v>
       </c>
-      <c r="J7" s="10">
-        <v>1</v>
-      </c>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1911,7 +1909,9 @@
       <c r="I8" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2338,7 +2338,7 @@
         <v>0.999</v>
       </c>
       <c r="J22" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -2399,9 +2399,7 @@
       <c r="I24" s="22">
         <v>0.2</v>
       </c>
-      <c r="J24" s="10">
-        <v>1</v>
-      </c>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="119.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3834,9 +3832,9 @@
       <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="29">
         <f>IF(VLOOKUP(D5,main!C5:J65,8,FALSE)=0,"",VLOOKUP(D5,main!C5:J65,8,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,9 +3850,9 @@
       <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="29" t="str">
         <f>IF(VLOOKUP(D6,main!C6:J66,8,FALSE)=0,"",VLOOKUP(D6,main!C6:J66,8,FALSE))</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,9 +3868,9 @@
       <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="29" t="str">
         <f>IF(VLOOKUP(D7,main!C7:J67,8,FALSE)=0,"",VLOOKUP(D7,main!C7:J67,8,FALSE))</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3888,9 +3886,9 @@
       <c r="D8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="29">
         <f>IF(VLOOKUP(D8,main!C8:J68,8,FALSE)=0,"",VLOOKUP(D8,main!C8:J68,8,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4142,7 +4140,7 @@
       </c>
       <c r="E22" s="29">
         <f>IF(VLOOKUP(D22,main!C22:J82,8,FALSE)=0,"",VLOOKUP(D22,main!C22:J82,8,FALSE))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4176,9 +4174,9 @@
       <c r="D24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="29" t="str">
         <f>IF(VLOOKUP(D24,main!C24:J84,8,FALSE)=0,"",VLOOKUP(D24,main!C24:J84,8,FALSE))</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cffuentes\repos\ssp_mongolia\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A66A4-1E85-40BC-88D7-DD6C3E4395A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975D0AE-D322-43C3-AC84-A13EF3DF0C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="yaml" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$J$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$K$62</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="345">
   <si>
     <t>sector</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>default_magnitude</t>
-  </si>
-  <si>
-    <t># Transformation</t>
   </si>
   <si>
     <t>AFOLU</t>
@@ -1121,6 +1118,9 @@
   </si>
   <si>
     <t>strategy_NZ</t>
+  </si>
+  <si>
+    <t>strategy_BaU</t>
   </si>
 </sst>
 </file>
@@ -1632,9 +1632,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1048514"/>
+  <dimension ref="A1:N1048514"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1650,13 +1650,13 @@
     <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="31.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="3"/>
-    <col min="12" max="12" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.42578125" style="3"/>
+    <col min="10" max="11" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="3"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,28 +1687,28 @@
       <c r="J1" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5">
@@ -1717,36 +1717,30 @@
       <c r="I2" s="22">
         <v>0.45</v>
       </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="28">
-        <f>+COUNT(J2:J62)</f>
-        <v>45</v>
-      </c>
-      <c r="M2" s="30">
-        <f>+(L2/61)</f>
-        <v>0.73770491803278693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10">
+        <v>1</v>
+      </c>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5">
@@ -1755,28 +1749,31 @@
       <c r="I3" s="23">
         <v>0.5</v>
       </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="143.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="143.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="2">
         <v>2023</v>
@@ -1787,28 +1784,29 @@
       <c r="I4" s="23">
         <v>0.3</v>
       </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="143.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="143.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="18">
         <v>2023</v>
@@ -1817,30 +1815,31 @@
         <v>2030</v>
       </c>
       <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="G6" s="2">
         <v>2024</v>
@@ -1851,26 +1850,29 @@
       <c r="I6" s="23">
         <v>0.2</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
@@ -1880,25 +1882,26 @@
         <v>50</v>
       </c>
       <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="2">
         <v>2021</v>
@@ -1907,30 +1910,31 @@
         <v>2030</v>
       </c>
       <c r="I8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="5">
         <v>2024</v>
@@ -1941,28 +1945,29 @@
       <c r="I9" s="23">
         <v>0.95</v>
       </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="2">
         <v>2021</v>
@@ -1973,28 +1978,29 @@
       <c r="I10" s="23">
         <v>0.95</v>
       </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2">
@@ -2003,28 +2009,29 @@
       <c r="I11" s="23">
         <v>0.8</v>
       </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="2">
@@ -2034,25 +2041,26 @@
         <v>0.8</v>
       </c>
       <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="5">
         <v>2024</v>
@@ -2063,28 +2071,29 @@
       <c r="I13" s="24">
         <v>0.3</v>
       </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="5">
         <v>2024</v>
@@ -2095,56 +2104,58 @@
       <c r="I14" s="24">
         <v>0.4</v>
       </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="2">
         <v>2030</v>
       </c>
       <c r="I15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="F16" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5">
@@ -2153,28 +2164,29 @@
       <c r="I16" s="22">
         <v>0.5</v>
       </c>
-      <c r="J16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="2">
@@ -2184,22 +2196,23 @@
         <v>0.3</v>
       </c>
       <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2213,28 +2226,29 @@
       <c r="I18" s="22">
         <v>0.1</v>
       </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="109.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="109.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5">
@@ -2243,28 +2257,29 @@
       <c r="I19" s="22">
         <v>0.1</v>
       </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="G20" s="5">
         <v>2024</v>
@@ -2275,28 +2290,29 @@
       <c r="I20" s="22">
         <v>0.1</v>
       </c>
-      <c r="J20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="137.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="137.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G21" s="5">
         <v>2024</v>
@@ -2307,28 +2323,29 @@
       <c r="I21" s="22">
         <v>0.1</v>
       </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="2">
@@ -2337,28 +2354,29 @@
       <c r="I22" s="22">
         <v>0.999</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="G23" s="5">
         <v>2021</v>
@@ -2369,28 +2387,29 @@
       <c r="I23" s="23">
         <v>0.95</v>
       </c>
-      <c r="J23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="10"/>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="F24" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5">
@@ -2400,25 +2419,26 @@
         <v>0.2</v>
       </c>
       <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="119.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="119.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G25" s="5">
         <v>2023</v>
@@ -2429,28 +2449,29 @@
       <c r="I25" s="23">
         <v>0.1</v>
       </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="G26" s="5">
         <v>2023</v>
@@ -2461,28 +2482,29 @@
       <c r="I26" s="23">
         <v>0.9</v>
       </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="10"/>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G27" s="5">
         <v>2023</v>
@@ -2491,28 +2513,29 @@
         <v>2030</v>
       </c>
       <c r="I27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" ht="121.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="121.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>129</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G28" s="5">
         <v>2023</v>
@@ -2521,30 +2544,31 @@
         <v>2030</v>
       </c>
       <c r="I28" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G29" s="5">
         <v>2023</v>
@@ -2553,58 +2577,60 @@
         <v>2030</v>
       </c>
       <c r="I29" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="E30" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>139</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5">
         <v>2030</v>
       </c>
       <c r="I30" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="2">
@@ -2613,28 +2639,29 @@
       <c r="I31" s="23">
         <v>0.5</v>
       </c>
-      <c r="J31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="10"/>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="F32" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="2">
@@ -2643,28 +2670,29 @@
       <c r="I32" s="23">
         <v>0.3</v>
       </c>
-      <c r="J32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="10"/>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="F33" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2">
@@ -2674,25 +2702,26 @@
         <v>0.5</v>
       </c>
       <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="C34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="F34" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="G34" s="5">
         <v>2021</v>
@@ -2703,28 +2732,29 @@
       <c r="I34" s="23">
         <v>0.9</v>
       </c>
-      <c r="J34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="10"/>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="F35" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="G35" s="2">
         <v>2021</v>
@@ -2735,28 +2765,29 @@
       <c r="I35" s="24">
         <v>0.5</v>
       </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="10"/>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="F36" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="G36" s="2">
         <v>2019</v>
@@ -2767,28 +2798,29 @@
       <c r="I36" s="23">
         <v>0.5</v>
       </c>
-      <c r="J36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="10"/>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="F37" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="G37" s="2">
         <v>2023</v>
@@ -2799,28 +2831,29 @@
       <c r="I37" s="24">
         <v>0.95</v>
       </c>
-      <c r="J37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="F38" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="2">
@@ -2829,28 +2862,29 @@
       <c r="I38" s="23">
         <v>0.2</v>
       </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="10"/>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="F39" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G39" s="2">
         <v>2023</v>
@@ -2861,28 +2895,29 @@
       <c r="I39" s="23">
         <v>0.2</v>
       </c>
-      <c r="J39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="10"/>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="F40" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="G40" s="2">
         <v>2021</v>
@@ -2894,25 +2929,26 @@
         <v>0.25</v>
       </c>
       <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="F41" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="G41" s="2">
         <v>2021</v>
@@ -2923,28 +2959,29 @@
       <c r="I41" s="23">
         <v>0.25</v>
       </c>
-      <c r="J41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="10"/>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="E42" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="F42" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="G42" s="2">
         <v>2021</v>
@@ -2955,28 +2992,29 @@
       <c r="I42" s="23">
         <v>0.25</v>
       </c>
-      <c r="J42" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="10"/>
+      <c r="K42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F43" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G43" s="2">
         <v>2021</v>
@@ -2988,25 +3026,26 @@
         <v>0.25</v>
       </c>
       <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="E44" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="F44" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="G44" s="2">
         <v>2021</v>
@@ -3017,28 +3056,29 @@
       <c r="I44" s="23">
         <v>0.7</v>
       </c>
-      <c r="J44" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="10"/>
+      <c r="K44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="F45" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="G45" s="2">
         <v>2021</v>
@@ -3049,28 +3089,29 @@
       <c r="I45" s="23">
         <v>0.7</v>
       </c>
-      <c r="J45" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="10"/>
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="E46" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E46" s="17" t="s">
+      <c r="F46" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="G46" s="2">
         <v>2021</v>
@@ -3081,28 +3122,29 @@
       <c r="I46" s="24">
         <v>0.7</v>
       </c>
-      <c r="J46" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="10"/>
+      <c r="K46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="F47" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="G47" s="2">
         <v>2021</v>
@@ -3113,28 +3155,29 @@
       <c r="I47" s="23">
         <v>0.25</v>
       </c>
-      <c r="J47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="10"/>
+      <c r="K47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="F48" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="G48" s="2">
         <v>2021</v>
@@ -3145,28 +3188,29 @@
       <c r="I48" s="23">
         <v>0.2</v>
       </c>
-      <c r="J48" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="10"/>
+      <c r="K48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="F49" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G49" s="2">
         <v>2021</v>
@@ -3178,25 +3222,26 @@
         <v>0.3</v>
       </c>
       <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="F50" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="G50" s="2">
         <v>2021</v>
@@ -3205,30 +3250,31 @@
         <v>2030</v>
       </c>
       <c r="I50" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="J50" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="F51" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="2">
@@ -3237,28 +3283,29 @@
       <c r="I51" s="23">
         <v>0.85</v>
       </c>
-      <c r="J51" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="10"/>
+      <c r="K51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="C52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="F52" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="2">
@@ -3267,112 +3314,116 @@
       <c r="I52" s="23">
         <v>0.9</v>
       </c>
-      <c r="J52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="10"/>
+      <c r="K52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="F53" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="2">
         <v>2030</v>
       </c>
       <c r="I53" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>246</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="2">
         <v>2030</v>
       </c>
       <c r="I54" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>250</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="2">
         <v>2030</v>
       </c>
       <c r="I55" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="G56" s="2">
         <v>2023</v>
@@ -3383,58 +3434,60 @@
       <c r="I56" s="23">
         <v>0.3</v>
       </c>
-      <c r="J56" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="10"/>
+      <c r="K56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="F57" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5">
         <v>2030</v>
       </c>
       <c r="I57" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="J57" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="25" t="s">
+      <c r="D58" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" s="26" t="s">
+      <c r="F58" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5">
@@ -3443,28 +3496,29 @@
       <c r="I58" s="22">
         <v>0.85</v>
       </c>
-      <c r="J58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="10"/>
+      <c r="K58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="F59" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5">
@@ -3473,28 +3527,29 @@
       <c r="I59" s="22">
         <v>0.85</v>
       </c>
-      <c r="J59" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="10"/>
+      <c r="K59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C60" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="E60" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="F60" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>272</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5">
@@ -3503,28 +3558,29 @@
       <c r="I60" s="22">
         <v>0.85</v>
       </c>
-      <c r="J60" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J60" s="10"/>
+      <c r="K60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="F61" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5">
@@ -3533,28 +3589,29 @@
       <c r="I61" s="22">
         <v>1</v>
       </c>
-      <c r="J61" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="10"/>
+      <c r="K61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="F62" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="G62" s="2">
         <v>2024</v>
@@ -3566,123 +3623,160 @@
         <v>0.95</v>
       </c>
       <c r="J62" s="10"/>
-    </row>
-    <row r="1048479" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="10"/>
+    </row>
+    <row r="1048479" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048479" s="20"/>
-    </row>
-    <row r="1048480" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048479" s="20"/>
+    </row>
+    <row r="1048480" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048480" s="20"/>
-    </row>
-    <row r="1048481" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048480" s="20"/>
+    </row>
+    <row r="1048481" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048481" s="20"/>
-    </row>
-    <row r="1048482" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048481" s="20"/>
+    </row>
+    <row r="1048482" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048482" s="20"/>
-    </row>
-    <row r="1048483" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048482" s="20"/>
+    </row>
+    <row r="1048483" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048483" s="20"/>
-    </row>
-    <row r="1048484" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048483" s="20"/>
+    </row>
+    <row r="1048484" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048484" s="20"/>
-    </row>
-    <row r="1048485" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048484" s="20"/>
+    </row>
+    <row r="1048485" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048485" s="20"/>
-    </row>
-    <row r="1048486" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048485" s="20"/>
+    </row>
+    <row r="1048486" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048486" s="20"/>
-    </row>
-    <row r="1048487" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048486" s="20"/>
+    </row>
+    <row r="1048487" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048487" s="20"/>
-    </row>
-    <row r="1048488" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048487" s="20"/>
+    </row>
+    <row r="1048488" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048488" s="20"/>
-    </row>
-    <row r="1048489" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048488" s="20"/>
+    </row>
+    <row r="1048489" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048489" s="20"/>
-    </row>
-    <row r="1048490" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048489" s="20"/>
+    </row>
+    <row r="1048490" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048490" s="20"/>
-    </row>
-    <row r="1048491" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048490" s="20"/>
+    </row>
+    <row r="1048491" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048491" s="20"/>
-    </row>
-    <row r="1048492" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048491" s="20"/>
+    </row>
+    <row r="1048492" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048492" s="20"/>
-    </row>
-    <row r="1048493" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048492" s="20"/>
+    </row>
+    <row r="1048493" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048493" s="20"/>
-    </row>
-    <row r="1048494" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048493" s="20"/>
+    </row>
+    <row r="1048494" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048494" s="20"/>
-    </row>
-    <row r="1048495" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048494" s="20"/>
+    </row>
+    <row r="1048495" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048495" s="20"/>
-    </row>
-    <row r="1048496" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048495" s="20"/>
+    </row>
+    <row r="1048496" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048496" s="20"/>
-    </row>
-    <row r="1048497" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048496" s="20"/>
+    </row>
+    <row r="1048497" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048497" s="20"/>
-    </row>
-    <row r="1048498" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048497" s="20"/>
+    </row>
+    <row r="1048498" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048498" s="20"/>
-    </row>
-    <row r="1048499" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048498" s="20"/>
+    </row>
+    <row r="1048499" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048499" s="20"/>
-    </row>
-    <row r="1048500" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048499" s="20"/>
+    </row>
+    <row r="1048500" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048500" s="20"/>
-    </row>
-    <row r="1048501" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048500" s="20"/>
+    </row>
+    <row r="1048501" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048501" s="20"/>
-    </row>
-    <row r="1048502" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048501" s="20"/>
+    </row>
+    <row r="1048502" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048502" s="20"/>
-    </row>
-    <row r="1048503" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048502" s="20"/>
+    </row>
+    <row r="1048503" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048503" s="20"/>
-    </row>
-    <row r="1048504" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048503" s="20"/>
+    </row>
+    <row r="1048504" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048504" s="20"/>
-    </row>
-    <row r="1048505" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048504" s="20"/>
+    </row>
+    <row r="1048505" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048505" s="20"/>
-    </row>
-    <row r="1048506" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048505" s="20"/>
+    </row>
+    <row r="1048506" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048506" s="20"/>
-    </row>
-    <row r="1048507" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048506" s="20"/>
+    </row>
+    <row r="1048507" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048507" s="20"/>
-    </row>
-    <row r="1048508" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048507" s="20"/>
+    </row>
+    <row r="1048508" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048508" s="20"/>
-    </row>
-    <row r="1048509" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048508" s="20"/>
+    </row>
+    <row r="1048509" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048509" s="20"/>
-    </row>
-    <row r="1048510" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048509" s="20"/>
+    </row>
+    <row r="1048510" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048510" s="20"/>
-    </row>
-    <row r="1048511" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048510" s="20"/>
+    </row>
+    <row r="1048511" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048511" s="20"/>
-    </row>
-    <row r="1048512" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048511" s="20"/>
+    </row>
+    <row r="1048512" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048512" s="20"/>
-    </row>
-    <row r="1048513" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048512" s="20"/>
+    </row>
+    <row r="1048513" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048513" s="20"/>
-    </row>
-    <row r="1048514" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="K1048513" s="20"/>
+    </row>
+    <row r="1048514" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J1048514" s="20"/>
+      <c r="K1048514" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J62">
+  <autoFilter ref="A1:K62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K62">
     <sortCondition ref="B2:B62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3692,7 +3786,53 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="172">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K62">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:K7">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3704,19 +3844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J62">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3734,9 +3862,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C820030-40C3-4F3C-B910-13A38E6FDCE4}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="67" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3744,10 +3872,10 @@
     <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3755,1111 +3883,1359 @@
         <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="27" t="str">
         <f>main!J1</f>
+        <v>strategy_BaU</v>
+      </c>
+      <c r="F1" s="27" t="str">
+        <f>main!K1</f>
         <v>strategy_NZ</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="29" t="str">
+        <f>IF(VLOOKUP($D2,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D2,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F2" s="29">
+        <f>IF(VLOOKUP($D2,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D2,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="29">
-        <f>IF(VLOOKUP(D2,main!C2:J62,8,FALSE)=0,"",VLOOKUP(D2,main!C2:J62,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="29" t="str">
+        <f>IF(VLOOKUP($D3,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D3,main!$C$2:$K$62,8,FALSE))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F3" s="29">
+        <f>IF(VLOOKUP($D3,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D3,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="29">
-        <f>IF(VLOOKUP(D3,main!C3:J63,8,FALSE)=0,"",VLOOKUP(D3,main!C3:J63,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="29" t="str">
+        <f>IF(VLOOKUP($D4,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D4,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F4" s="29">
+        <f>IF(VLOOKUP($D4,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D4,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="29">
-        <f>IF(VLOOKUP(D4,main!C4:J64,8,FALSE)=0,"",VLOOKUP(D4,main!C4:J64,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <f>IF(VLOOKUP($D5,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D5,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F5" s="29">
+        <f>IF(VLOOKUP($D5,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D5,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="29">
-        <f>IF(VLOOKUP(D5,main!C5:J65,8,FALSE)=0,"",VLOOKUP(D5,main!C5:J65,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="29">
+        <f>IF(VLOOKUP($D6,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D6,main!$C$2:$K$62,8,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="29" t="str">
+        <f>IF(VLOOKUP($D6,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D6,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="29" t="str">
-        <f>IF(VLOOKUP(D6,main!C6:J66,8,FALSE)=0,"",VLOOKUP(D6,main!C6:J66,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="29" t="str">
+        <f>IF(VLOOKUP($D7,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D7,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F7" s="29" t="str">
+        <f>IF(VLOOKUP($D7,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D7,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="29" t="str">
-        <f>IF(VLOOKUP(D7,main!C7:J67,8,FALSE)=0,"",VLOOKUP(D7,main!C7:J67,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E8" s="29" t="str">
+        <f>IF(VLOOKUP($D8,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D8,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F8" s="29">
+        <f>IF(VLOOKUP($D8,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D8,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="29">
-        <f>IF(VLOOKUP(D8,main!C8:J68,8,FALSE)=0,"",VLOOKUP(D8,main!C8:J68,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <f>IF(VLOOKUP($D9,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D9,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F9" s="29">
+        <f>IF(VLOOKUP($D9,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D9,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="29">
-        <f>IF(VLOOKUP(D9,main!C9:J69,8,FALSE)=0,"",VLOOKUP(D9,main!C9:J69,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="29" t="str">
+        <f>IF(VLOOKUP($D10,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D10,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F10" s="29">
+        <f>IF(VLOOKUP($D10,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D10,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="29">
-        <f>IF(VLOOKUP(D10,main!C10:J70,8,FALSE)=0,"",VLOOKUP(D10,main!C10:J70,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="E11" s="29" t="str">
+        <f>IF(VLOOKUP($D11,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D11,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F11" s="29">
+        <f>IF(VLOOKUP($D11,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D11,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="29">
-        <f>IF(VLOOKUP(D11,main!C11:J71,8,FALSE)=0,"",VLOOKUP(D11,main!C11:J71,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="29" t="str">
+        <f>IF(VLOOKUP($D12,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D12,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F12" s="29" t="str">
+        <f>IF(VLOOKUP($D12,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D12,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="29" t="str">
-        <f>IF(VLOOKUP(D12,main!C12:J72,8,FALSE)=0,"",VLOOKUP(D12,main!C12:J72,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="E13" s="29" t="str">
+        <f>IF(VLOOKUP($D13,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D13,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F13" s="29">
+        <f>IF(VLOOKUP($D13,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D13,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="29">
-        <f>IF(VLOOKUP(D13,main!C13:J73,8,FALSE)=0,"",VLOOKUP(D13,main!C13:J73,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="29" t="str">
+        <f>IF(VLOOKUP($D14,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D14,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F14" s="29">
+        <f>IF(VLOOKUP($D14,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D14,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="29">
-        <f>IF(VLOOKUP(D14,main!C14:J74,8,FALSE)=0,"",VLOOKUP(D14,main!C14:J74,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="29" t="str">
+        <f>IF(VLOOKUP($D15,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D15,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F15" s="29" t="str">
+        <f>IF(VLOOKUP($D15,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D15,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="29" t="str">
-        <f>IF(VLOOKUP(D15,main!C15:J75,8,FALSE)=0,"",VLOOKUP(D15,main!C15:J75,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="E16" s="29" t="str">
+        <f>IF(VLOOKUP($D16,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D16,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F16" s="29">
+        <f>IF(VLOOKUP($D16,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D16,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="29">
-        <f>IF(VLOOKUP(D16,main!C16:J76,8,FALSE)=0,"",VLOOKUP(D16,main!C16:J76,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="29" t="str">
+        <f>IF(VLOOKUP($D17,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D17,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F17" s="29" t="str">
+        <f>IF(VLOOKUP($D17,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D17,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="29" t="str">
-        <f>IF(VLOOKUP(D17,main!C17:J77,8,FALSE)=0,"",VLOOKUP(D17,main!C17:J77,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="29" t="str">
+        <f>IF(VLOOKUP($D18,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D18,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F18" s="29">
+        <f>IF(VLOOKUP($D18,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D18,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="29">
-        <f>IF(VLOOKUP(D18,main!C18:J78,8,FALSE)=0,"",VLOOKUP(D18,main!C18:J78,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="29" t="str">
+        <f>IF(VLOOKUP($D19,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D19,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F19" s="29">
+        <f>IF(VLOOKUP($D19,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D19,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="29">
-        <f>IF(VLOOKUP(D19,main!C19:J79,8,FALSE)=0,"",VLOOKUP(D19,main!C19:J79,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="29" t="str">
+        <f>IF(VLOOKUP($D20,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D20,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F20" s="29">
+        <f>IF(VLOOKUP($D20,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D20,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="29">
-        <f>IF(VLOOKUP(D20,main!C20:J80,8,FALSE)=0,"",VLOOKUP(D20,main!C20:J80,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="29" t="str">
+        <f>IF(VLOOKUP($D21,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D21,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F21" s="29">
+        <f>IF(VLOOKUP($D21,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D21,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="29">
-        <f>IF(VLOOKUP(D21,main!C21:J81,8,FALSE)=0,"",VLOOKUP(D21,main!C21:J81,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" s="29" t="str">
+        <f>IF(VLOOKUP($D22,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D22,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F22" s="29">
+        <f>IF(VLOOKUP($D22,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D22,main!$C$2:$K$62,9,FALSE))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="29">
-        <f>IF(VLOOKUP(D22,main!C22:J82,8,FALSE)=0,"",VLOOKUP(D22,main!C22:J82,8,FALSE))</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="29" t="str">
+        <f>IF(VLOOKUP($D23,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D23,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F23" s="29">
+        <f>IF(VLOOKUP($D23,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D23,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="29">
-        <f>IF(VLOOKUP(D23,main!C23:J83,8,FALSE)=0,"",VLOOKUP(D23,main!C23:J83,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="29" t="str">
+        <f>IF(VLOOKUP($D24,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D24,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F24" s="29" t="str">
+        <f>IF(VLOOKUP($D24,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D24,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="29" t="str">
-        <f>IF(VLOOKUP(D24,main!C24:J84,8,FALSE)=0,"",VLOOKUP(D24,main!C24:J84,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="29" t="str">
+        <f>IF(VLOOKUP($D25,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D25,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F25" s="29">
+        <f>IF(VLOOKUP($D25,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D25,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="29">
-        <f>IF(VLOOKUP(D25,main!C25:J85,8,FALSE)=0,"",VLOOKUP(D25,main!C25:J85,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="E26" s="29" t="str">
+        <f>IF(VLOOKUP($D26,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D26,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F26" s="29">
+        <f>IF(VLOOKUP($D26,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D26,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="29">
-        <f>IF(VLOOKUP(D26,main!C26:J86,8,FALSE)=0,"",VLOOKUP(D26,main!C26:J86,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="29" t="str">
+        <f>IF(VLOOKUP($D27,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D27,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F27" s="29" t="str">
+        <f>IF(VLOOKUP($D27,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D27,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="29" t="str">
-        <f>IF(VLOOKUP(D27,main!C27:J87,8,FALSE)=0,"",VLOOKUP(D27,main!C27:J87,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="29" t="str">
+        <f>IF(VLOOKUP($D28,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D28,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F28" s="29">
+        <f>IF(VLOOKUP($D28,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D28,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="29">
-        <f>IF(VLOOKUP(D28,main!C28:J88,8,FALSE)=0,"",VLOOKUP(D28,main!C28:J88,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="29" t="str">
+        <f>IF(VLOOKUP($D29,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D29,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F29" s="29" t="str">
+        <f>IF(VLOOKUP($D29,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D29,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="29" t="str">
-        <f>IF(VLOOKUP(D29,main!C29:J89,8,FALSE)=0,"",VLOOKUP(D29,main!C29:J89,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="E30" s="29" t="str">
+        <f>IF(VLOOKUP($D30,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D30,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F30" s="29">
+        <f>IF(VLOOKUP($D30,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D30,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="29">
-        <f>IF(VLOOKUP(D30,main!C30:J90,8,FALSE)=0,"",VLOOKUP(D30,main!C30:J90,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="29" t="str">
+        <f>IF(VLOOKUP($D31,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D31,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F31" s="29">
+        <f>IF(VLOOKUP($D31,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D31,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="29">
-        <f>IF(VLOOKUP(D31,main!C31:J91,8,FALSE)=0,"",VLOOKUP(D31,main!C31:J91,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="29" t="str">
+        <f>IF(VLOOKUP($D32,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D32,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F32" s="29">
+        <f>IF(VLOOKUP($D32,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D32,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="29">
-        <f>IF(VLOOKUP(D32,main!C32:J92,8,FALSE)=0,"",VLOOKUP(D32,main!C32:J92,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="E33" s="29" t="str">
+        <f>IF(VLOOKUP($D33,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D33,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F33" s="29" t="str">
+        <f>IF(VLOOKUP($D33,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D33,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="29" t="str">
-        <f>IF(VLOOKUP(D33,main!C33:J93,8,FALSE)=0,"",VLOOKUP(D33,main!C33:J93,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="29" t="str">
+        <f>IF(VLOOKUP($D34,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D34,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F34" s="29">
+        <f>IF(VLOOKUP($D34,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D34,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="29">
-        <f>IF(VLOOKUP(D34,main!C34:J94,8,FALSE)=0,"",VLOOKUP(D34,main!C34:J94,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="E35" s="29" t="str">
+        <f>IF(VLOOKUP($D35,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D35,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F35" s="29">
+        <f>IF(VLOOKUP($D35,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D35,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="29">
-        <f>IF(VLOOKUP(D35,main!C35:J95,8,FALSE)=0,"",VLOOKUP(D35,main!C35:J95,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="29" t="str">
+        <f>IF(VLOOKUP($D36,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D36,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F36" s="29">
+        <f>IF(VLOOKUP($D36,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D36,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="29">
-        <f>IF(VLOOKUP(D36,main!C36:J96,8,FALSE)=0,"",VLOOKUP(D36,main!C36:J96,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="29" t="str">
+        <f>IF(VLOOKUP($D37,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D37,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F37" s="29">
+        <f>IF(VLOOKUP($D37,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D37,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="29">
-        <f>IF(VLOOKUP(D37,main!C37:J97,8,FALSE)=0,"",VLOOKUP(D37,main!C37:J97,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="E38" s="29" t="str">
+        <f>IF(VLOOKUP($D38,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D38,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F38" s="29">
+        <f>IF(VLOOKUP($D38,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D38,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="29">
-        <f>IF(VLOOKUP(D38,main!C38:J98,8,FALSE)=0,"",VLOOKUP(D38,main!C38:J98,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="29" t="str">
+        <f>IF(VLOOKUP($D39,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D39,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F39" s="29">
+        <f>IF(VLOOKUP($D39,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D39,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="29">
-        <f>IF(VLOOKUP(D39,main!C39:J99,8,FALSE)=0,"",VLOOKUP(D39,main!C39:J99,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="E40" s="29" t="str">
+        <f>IF(VLOOKUP($D40,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D40,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F40" s="29" t="str">
+        <f>IF(VLOOKUP($D40,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D40,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="29" t="str">
-        <f>IF(VLOOKUP(D40,main!C40:J100,8,FALSE)=0,"",VLOOKUP(D40,main!C40:J100,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="E41" s="29" t="str">
+        <f>IF(VLOOKUP($D41,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D41,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F41" s="29">
+        <f>IF(VLOOKUP($D41,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D41,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="29">
-        <f>IF(VLOOKUP(D41,main!C41:J101,8,FALSE)=0,"",VLOOKUP(D41,main!C41:J101,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="29" t="str">
+        <f>IF(VLOOKUP($D42,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D42,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F42" s="29">
+        <f>IF(VLOOKUP($D42,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D42,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="29">
-        <f>IF(VLOOKUP(D42,main!C42:J102,8,FALSE)=0,"",VLOOKUP(D42,main!C42:J102,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="29" t="str">
+        <f>IF(VLOOKUP($D43,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D43,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F43" s="29" t="str">
+        <f>IF(VLOOKUP($D43,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D43,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="29" t="str">
-        <f>IF(VLOOKUP(D43,main!C43:J103,8,FALSE)=0,"",VLOOKUP(D43,main!C43:J103,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44" s="29" t="str">
+        <f>IF(VLOOKUP($D44,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D44,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F44" s="29">
+        <f>IF(VLOOKUP($D44,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D44,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="29">
-        <f>IF(VLOOKUP(D44,main!C44:J104,8,FALSE)=0,"",VLOOKUP(D44,main!C44:J104,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="29" t="str">
+        <f>IF(VLOOKUP($D45,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D45,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F45" s="29">
+        <f>IF(VLOOKUP($D45,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D45,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E45" s="29">
-        <f>IF(VLOOKUP(D45,main!C45:J105,8,FALSE)=0,"",VLOOKUP(D45,main!C45:J105,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="29" t="str">
+        <f>IF(VLOOKUP($D46,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D46,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F46" s="29">
+        <f>IF(VLOOKUP($D46,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D46,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="29">
-        <f>IF(VLOOKUP(D46,main!C46:J106,8,FALSE)=0,"",VLOOKUP(D46,main!C46:J106,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" s="29" t="str">
+        <f>IF(VLOOKUP($D47,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D47,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F47" s="29">
+        <f>IF(VLOOKUP($D47,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D47,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E47" s="29">
-        <f>IF(VLOOKUP(D47,main!C47:J107,8,FALSE)=0,"",VLOOKUP(D47,main!C47:J107,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="29" t="str">
+        <f>IF(VLOOKUP($D48,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D48,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F48" s="29">
+        <f>IF(VLOOKUP($D48,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D48,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="29">
-        <f>IF(VLOOKUP(D48,main!C48:J108,8,FALSE)=0,"",VLOOKUP(D48,main!C48:J108,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="29" t="str">
+        <f>IF(VLOOKUP($D49,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D49,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F49" s="29" t="str">
+        <f>IF(VLOOKUP($D49,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D49,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="29" t="str">
-        <f>IF(VLOOKUP(D49,main!C49:J109,8,FALSE)=0,"",VLOOKUP(D49,main!C49:J109,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="29" t="str">
+        <f>IF(VLOOKUP($D50,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D50,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F50" s="29">
+        <f>IF(VLOOKUP($D50,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D50,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E50" s="29">
-        <f>IF(VLOOKUP(D50,main!C50:J110,8,FALSE)=0,"",VLOOKUP(D50,main!C50:J110,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="E51" s="29" t="str">
+        <f>IF(VLOOKUP($D51,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D51,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F51" s="29">
+        <f>IF(VLOOKUP($D51,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D51,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="29" t="str">
+        <f>IF(VLOOKUP($D52,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D52,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F52" s="29">
+        <f>IF(VLOOKUP($D52,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D52,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="29" t="str">
+        <f>IF(VLOOKUP($D53,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D53,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F53" s="29" t="str">
+        <f>IF(VLOOKUP($D53,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D53,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="29" t="str">
+        <f>IF(VLOOKUP($D54,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D54,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F54" s="29" t="str">
+        <f>IF(VLOOKUP($D54,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D54,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" s="29" t="str">
+        <f>IF(VLOOKUP($D55,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D55,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F55" s="29" t="str">
+        <f>IF(VLOOKUP($D55,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D55,main!$C$2:$K$62,9,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="29" t="str">
+        <f>IF(VLOOKUP($D56,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D56,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F56" s="29">
+        <f>IF(VLOOKUP($D56,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D56,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="29" t="str">
+        <f>IF(VLOOKUP($D57,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D57,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F57" s="29">
+        <f>IF(VLOOKUP($D57,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D57,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="29">
-        <f>IF(VLOOKUP(D51,main!C51:J111,8,FALSE)=0,"",VLOOKUP(D51,main!C51:J111,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E52" s="29">
-        <f>IF(VLOOKUP(D52,main!C52:J112,8,FALSE)=0,"",VLOOKUP(D52,main!C52:J112,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" s="29" t="str">
-        <f>IF(VLOOKUP(D53,main!C53:J113,8,FALSE)=0,"",VLOOKUP(D53,main!C53:J113,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E54" s="29" t="str">
-        <f>IF(VLOOKUP(D54,main!C54:J114,8,FALSE)=0,"",VLOOKUP(D54,main!C54:J114,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" s="29" t="str">
-        <f>IF(VLOOKUP(D55,main!C55:J115,8,FALSE)=0,"",VLOOKUP(D55,main!C55:J115,8,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" s="29">
-        <f>IF(VLOOKUP(D56,main!C56:J116,8,FALSE)=0,"",VLOOKUP(D56,main!C56:J116,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="29">
-        <f>IF(VLOOKUP(D57,main!C57:J117,8,FALSE)=0,"",VLOOKUP(D57,main!C57:J117,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" s="29" t="str">
+        <f>IF(VLOOKUP($D58,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D58,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F58" s="29">
+        <f>IF(VLOOKUP($D58,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D58,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="29">
-        <f>IF(VLOOKUP(D58,main!C58:J118,8,FALSE)=0,"",VLOOKUP(D58,main!C58:J118,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E59" s="29" t="str">
+        <f>IF(VLOOKUP($D59,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D59,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F59" s="29">
+        <f>IF(VLOOKUP($D59,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D59,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E59" s="29">
-        <f>IF(VLOOKUP(D59,main!C59:J119,8,FALSE)=0,"",VLOOKUP(D59,main!C59:J119,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" s="29" t="str">
+        <f>IF(VLOOKUP($D60,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D60,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F60" s="29">
+        <f>IF(VLOOKUP($D60,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D60,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E60" s="29">
-        <f>IF(VLOOKUP(D60,main!C60:J120,8,FALSE)=0,"",VLOOKUP(D60,main!C60:J120,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="29" t="str">
+        <f>IF(VLOOKUP($D61,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D61,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F61" s="29">
+        <f>IF(VLOOKUP($D61,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D61,main!$C$2:$K$62,9,FALSE))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E61" s="29">
-        <f>IF(VLOOKUP(D61,main!C61:J121,8,FALSE)=0,"",VLOOKUP(D61,main!C61:J121,8,FALSE))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="D62" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" s="29" t="str">
-        <f>IF(VLOOKUP(D62,main!C62:J122,8,FALSE)=0,"",VLOOKUP(D62,main!C62:J122,8,FALSE))</f>
+        <f>IF(VLOOKUP($D62,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D62,main!$C$2:$K$62,8,FALSE))</f>
+        <v/>
+      </c>
+      <c r="F62" s="29" t="str">
+        <f>IF(VLOOKUP($D62,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D62,main!$C$2:$K$62,9,FALSE))</f>
         <v/>
       </c>
     </row>

--- a/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cffuentes\repos\ssp_mongolia\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975D0AE-D322-43C3-AC84-A13EF3DF0C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662F015-09BA-4BB8-9741-705460DB5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$K$62</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1117,10 +1117,10 @@
     <t>transformation_waso_inc_recycling.yaml</t>
   </si>
   <si>
-    <t>strategy_NZ</t>
-  </si>
-  <si>
     <t>strategy_BaU</t>
+  </si>
+  <si>
+    <t>strategy_LEP</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,10 +1685,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,9 @@
       <c r="J6" s="10">
         <v>1</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -3775,8 +3777,8 @@
     <sortCondition ref="B2:B62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3786,7 +3788,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="175">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3797,8 +3799,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K62">
-    <cfRule type="colorScale" priority="160">
+  <conditionalFormatting sqref="J2:J62">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3810,6 +3812,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K5 K7:K1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -3821,7 +3845,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K2:K5 K7:K62">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3843,7 +3879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J62">
+  <conditionalFormatting sqref="K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3894,7 +3930,7 @@
       </c>
       <c r="F1" s="27" t="str">
         <f>main!K1</f>
-        <v>strategy_NZ</v>
+        <v>strategy_LEP</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,9 +4038,9 @@
         <f>IF(VLOOKUP($D6,main!$C$2:$K$62,8,FALSE)=0,"",VLOOKUP($D6,main!$C$2:$K$62,8,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="F6" s="29" t="str">
+      <c r="F6" s="29">
         <f>IF(VLOOKUP($D6,main!$C$2:$K$62,9,FALSE)=0,"",VLOOKUP($D6,main!$C$2:$K$62,9,FALSE))</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_mongolia_transformation_v0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cffuentes\repos\ssp_mongolia\ssp_modeling\scenario_mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fabian_fuentes\repos\ssp_mongolia\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B662F015-09BA-4BB8-9741-705460DB5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96AA778-F311-4353-B413-4FB7A74BDADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1635,28 +1635,28 @@
   <dimension ref="A1:N1048514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="76.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="3"/>
+    <col min="1" max="1" width="14.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="76.453125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="22.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" style="3"/>
     <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.42578125" style="3"/>
+    <col min="14" max="16384" width="8.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="28" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="N2" s="30"/>
     </row>
-    <row r="3" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="143.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="143.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="143.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="143.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>32</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="143.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="109.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="109.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="143.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>75</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="137.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="137.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>75</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="119.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="119.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>9</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" ht="121.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="121.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="140.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25" t="s">
         <v>9</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>9</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>148</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>148</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>32</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>32</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>32</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>32</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>32</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>32</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>227</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>227</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>227</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>227</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="J54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="157" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>227</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="162.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>227</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>227</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>227</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>227</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
         <v>227</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="25" t="s">
         <v>227</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>227</v>
       </c>
@@ -3627,147 +3627,147 @@
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="1048479" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048479" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048479" s="20"/>
       <c r="K1048479" s="20"/>
     </row>
-    <row r="1048480" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048480" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048480" s="20"/>
       <c r="K1048480" s="20"/>
     </row>
-    <row r="1048481" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048481" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048481" s="20"/>
       <c r="K1048481" s="20"/>
     </row>
-    <row r="1048482" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048482" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048482" s="20"/>
       <c r="K1048482" s="20"/>
     </row>
-    <row r="1048483" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048483" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048483" s="20"/>
       <c r="K1048483" s="20"/>
     </row>
-    <row r="1048484" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048484" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048484" s="20"/>
       <c r="K1048484" s="20"/>
     </row>
-    <row r="1048485" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048485" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048485" s="20"/>
       <c r="K1048485" s="20"/>
     </row>
-    <row r="1048486" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048486" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048486" s="20"/>
       <c r="K1048486" s="20"/>
     </row>
-    <row r="1048487" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048487" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048487" s="20"/>
       <c r="K1048487" s="20"/>
     </row>
-    <row r="1048488" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048488" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048488" s="20"/>
       <c r="K1048488" s="20"/>
     </row>
-    <row r="1048489" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048489" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048489" s="20"/>
       <c r="K1048489" s="20"/>
     </row>
-    <row r="1048490" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048490" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048490" s="20"/>
       <c r="K1048490" s="20"/>
     </row>
-    <row r="1048491" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048491" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048491" s="20"/>
       <c r="K1048491" s="20"/>
     </row>
-    <row r="1048492" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048492" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048492" s="20"/>
       <c r="K1048492" s="20"/>
     </row>
-    <row r="1048493" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048493" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048493" s="20"/>
       <c r="K1048493" s="20"/>
     </row>
-    <row r="1048494" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048494" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048494" s="20"/>
       <c r="K1048494" s="20"/>
     </row>
-    <row r="1048495" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048495" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048495" s="20"/>
       <c r="K1048495" s="20"/>
     </row>
-    <row r="1048496" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048496" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048496" s="20"/>
       <c r="K1048496" s="20"/>
     </row>
-    <row r="1048497" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048497" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048497" s="20"/>
       <c r="K1048497" s="20"/>
     </row>
-    <row r="1048498" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048498" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048498" s="20"/>
       <c r="K1048498" s="20"/>
     </row>
-    <row r="1048499" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048499" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048499" s="20"/>
       <c r="K1048499" s="20"/>
     </row>
-    <row r="1048500" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048500" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048500" s="20"/>
       <c r="K1048500" s="20"/>
     </row>
-    <row r="1048501" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048501" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048501" s="20"/>
       <c r="K1048501" s="20"/>
     </row>
-    <row r="1048502" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048502" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048502" s="20"/>
       <c r="K1048502" s="20"/>
     </row>
-    <row r="1048503" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048503" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048503" s="20"/>
       <c r="K1048503" s="20"/>
     </row>
-    <row r="1048504" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048504" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048504" s="20"/>
       <c r="K1048504" s="20"/>
     </row>
-    <row r="1048505" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048505" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048505" s="20"/>
       <c r="K1048505" s="20"/>
     </row>
-    <row r="1048506" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048506" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048506" s="20"/>
       <c r="K1048506" s="20"/>
     </row>
-    <row r="1048507" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048507" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048507" s="20"/>
       <c r="K1048507" s="20"/>
     </row>
-    <row r="1048508" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048508" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048508" s="20"/>
       <c r="K1048508" s="20"/>
     </row>
-    <row r="1048509" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048509" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048509" s="20"/>
       <c r="K1048509" s="20"/>
     </row>
-    <row r="1048510" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048510" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048510" s="20"/>
       <c r="K1048510" s="20"/>
     </row>
-    <row r="1048511" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048511" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048511" s="20"/>
       <c r="K1048511" s="20"/>
     </row>
-    <row r="1048512" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048512" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048512" s="20"/>
       <c r="K1048512" s="20"/>
     </row>
-    <row r="1048513" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048513" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048513" s="20"/>
       <c r="K1048513" s="20"/>
     </row>
-    <row r="1048514" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="1048514" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J1048514" s="20"/>
       <c r="K1048514" s="20"/>
     </row>
@@ -3868,7 +3868,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3878,9 +3878,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3902,16 +3900,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -3933,7 +3931,7 @@
         <v>strategy_LEP</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
@@ -3955,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -3999,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -4043,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -4065,7 +4063,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
@@ -4087,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -4109,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
@@ -4131,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
@@ -4197,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>61</v>
       </c>
@@ -4219,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
@@ -4241,7 +4239,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>75</v>
       </c>
@@ -4263,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>75</v>
       </c>
@@ -4285,7 +4283,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>75</v>
       </c>
@@ -4307,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>75</v>
       </c>
@@ -4329,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>75</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>99</v>
       </c>
@@ -4395,7 +4393,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
@@ -4417,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>99</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>99</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>116</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>116</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>116</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>116</v>
       </c>
@@ -4549,7 +4547,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>134</v>
       </c>
@@ -4571,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -4593,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>134</v>
       </c>
@@ -4615,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>149</v>
       </c>
@@ -4637,7 +4635,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>149</v>
       </c>
@@ -4659,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>158</v>
       </c>
@@ -4681,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>158</v>
       </c>
@@ -4703,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>158</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>171</v>
       </c>
@@ -4747,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>171</v>
       </c>
@@ -4769,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>180</v>
       </c>
@@ -4791,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>185</v>
       </c>
@@ -4813,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>185</v>
       </c>
@@ -4835,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>185</v>
       </c>
@@ -4857,7 +4855,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>185</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>185</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>185</v>
       </c>
@@ -4923,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>185</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>185</v>
       </c>
@@ -4967,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>185</v>
       </c>
@@ -4989,7 +4987,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>185</v>
       </c>
@@ -5011,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>228</v>
       </c>
@@ -5033,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>228</v>
       </c>
@@ -5055,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>237</v>
       </c>
@@ -5077,7 +5075,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>237</v>
       </c>
@@ -5099,7 +5097,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>237</v>
       </c>
@@ -5121,7 +5119,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>251</v>
       </c>
@@ -5143,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>251</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>251</v>
       </c>
@@ -5187,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>251</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>251</v>
       </c>
@@ -5231,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>251</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>251</v>
       </c>
